--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1879.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1879.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.658285126904965</v>
+        <v>1.834768176078796</v>
       </c>
       <c r="B1">
-        <v>4.329745136555668</v>
+        <v>1.823181986808777</v>
       </c>
       <c r="C1">
-        <v>4.129316303233195</v>
+        <v>2.076534986495972</v>
       </c>
       <c r="D1">
-        <v>1.136884040011636</v>
+        <v>3.606794357299805</v>
       </c>
       <c r="E1">
-        <v>0.6695965777448151</v>
+        <v>3.897196769714355</v>
       </c>
     </row>
   </sheetData>
